--- a/Covid19_Osaka_NumData.xlsx
+++ b/Covid19_Osaka_NumData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="43">
   <si>
     <t>日付</t>
   </si>
@@ -504,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:D377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1184,13 +1184,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>43902</v>
+        <v>43938</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1198,13 +1198,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>43922</v>
+        <v>43902</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1212,13 +1212,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1226,13 +1226,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1240,13 +1240,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1254,13 +1254,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1268,13 +1268,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1282,13 +1282,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1296,13 +1296,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1310,13 +1310,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1324,13 +1324,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1338,13 +1338,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1352,7 +1352,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1366,7 +1366,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1394,10 +1394,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>43925</v>
+        <v>43938</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -1422,7 +1422,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>43934</v>
+        <v>43927</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -1436,10 +1436,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>43896</v>
+        <v>43934</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1450,13 +1450,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1464,13 +1464,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>43905</v>
+        <v>43897</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1478,7 +1478,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>43911</v>
+        <v>43905</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
@@ -1492,7 +1492,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>43914</v>
+        <v>43911</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
@@ -1506,7 +1506,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
@@ -1520,7 +1520,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
@@ -1534,13 +1534,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1548,13 +1548,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1562,13 +1562,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1576,13 +1576,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1590,13 +1590,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1604,13 +1604,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1618,13 +1618,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1632,13 +1632,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1646,7 +1646,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
@@ -1660,13 +1660,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1674,13 +1674,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1688,13 +1688,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1702,13 +1702,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
       </c>
       <c r="D86">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1716,13 +1716,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1730,13 +1730,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1744,13 +1744,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1758,13 +1758,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1772,13 +1772,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1786,13 +1786,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>43900</v>
+        <v>43937</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1800,13 +1800,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>43902</v>
+        <v>43938</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1814,7 +1814,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>43915</v>
+        <v>43900</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
@@ -1828,7 +1828,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>43917</v>
+        <v>43902</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
@@ -1842,7 +1842,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
@@ -1856,13 +1856,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>43922</v>
+        <v>43917</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1870,7 +1870,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
@@ -1884,13 +1884,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>43930</v>
+        <v>43922</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1898,13 +1898,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1912,7 +1912,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
@@ -1926,7 +1926,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -1940,7 +1940,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -1954,7 +1954,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
@@ -1968,7 +1968,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="C105" t="s">
         <v>9</v>
@@ -1982,13 +1982,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>43895</v>
+        <v>43936</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1996,10 +1996,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>43904</v>
+        <v>43937</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2010,10 +2010,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>43906</v>
+        <v>43938</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -2024,7 +2024,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>43917</v>
+        <v>43895</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
@@ -2038,13 +2038,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>43921</v>
+        <v>43904</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2052,13 +2052,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>43923</v>
+        <v>43906</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2066,13 +2066,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>43927</v>
+        <v>43917</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2080,13 +2080,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2094,13 +2094,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>43930</v>
+        <v>43923</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2108,13 +2108,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>43931</v>
+        <v>43927</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2122,13 +2122,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>43932</v>
+        <v>43928</v>
       </c>
       <c r="C116" t="s">
         <v>10</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2136,7 +2136,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>43935</v>
+        <v>43930</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
@@ -2150,13 +2150,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>43936</v>
+        <v>43931</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2164,10 +2164,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>43859</v>
+        <v>43932</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -2178,13 +2178,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>43888</v>
+        <v>43935</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2192,10 +2192,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>43889</v>
+        <v>43936</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -2206,13 +2206,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>43892</v>
+        <v>43859</v>
       </c>
       <c r="C122" t="s">
         <v>11</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2220,7 +2220,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>43893</v>
+        <v>43888</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
@@ -2234,7 +2234,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>43894</v>
+        <v>43889</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
@@ -2248,13 +2248,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>43896</v>
+        <v>43892</v>
       </c>
       <c r="C125" t="s">
         <v>11</v>
       </c>
       <c r="D125">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2262,13 +2262,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>43898</v>
+        <v>43893</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2276,13 +2276,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>43900</v>
+        <v>43894</v>
       </c>
       <c r="C127" t="s">
         <v>11</v>
       </c>
       <c r="D127">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2290,13 +2290,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>43901</v>
+        <v>43896</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2304,13 +2304,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>43902</v>
+        <v>43898</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2318,13 +2318,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2332,13 +2332,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2346,7 +2346,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>43907</v>
+        <v>43902</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
@@ -2360,13 +2360,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>43909</v>
+        <v>43904</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2374,13 +2374,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>43910</v>
+        <v>43905</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2388,13 +2388,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>43912</v>
+        <v>43907</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2402,7 +2402,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
@@ -2416,13 +2416,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2430,13 +2430,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>43915</v>
+        <v>43912</v>
       </c>
       <c r="C138" t="s">
         <v>11</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2444,13 +2444,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>43916</v>
+        <v>43913</v>
       </c>
       <c r="C139" t="s">
         <v>11</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2458,13 +2458,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>43917</v>
+        <v>43914</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
       </c>
       <c r="D140">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2472,13 +2472,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>43918</v>
+        <v>43915</v>
       </c>
       <c r="C141" t="s">
         <v>11</v>
       </c>
       <c r="D141">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2486,13 +2486,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>43919</v>
+        <v>43916</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
       </c>
       <c r="D142">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2500,13 +2500,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="C143" t="s">
         <v>11</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2514,13 +2514,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
       </c>
       <c r="D144">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2528,13 +2528,13 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>43922</v>
+        <v>43919</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
       </c>
       <c r="D145">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2542,13 +2542,13 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
       </c>
       <c r="D146">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2556,13 +2556,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="C147" t="s">
         <v>11</v>
       </c>
       <c r="D147">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2570,13 +2570,13 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>43925</v>
+        <v>43922</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
       </c>
       <c r="D148">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2584,13 +2584,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>43926</v>
+        <v>43923</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
       </c>
       <c r="D149">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2598,13 +2598,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2612,13 +2612,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>43928</v>
+        <v>43925</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
       </c>
       <c r="D151">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2626,13 +2626,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>43929</v>
+        <v>43926</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
       </c>
       <c r="D152">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2640,13 +2640,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="C153" t="s">
         <v>11</v>
       </c>
       <c r="D153">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2654,13 +2654,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>43931</v>
+        <v>43928</v>
       </c>
       <c r="C154" t="s">
         <v>11</v>
       </c>
       <c r="D154">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2668,13 +2668,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>43932</v>
+        <v>43929</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
       </c>
       <c r="D155">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2682,13 +2682,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>43933</v>
+        <v>43930</v>
       </c>
       <c r="C156" t="s">
         <v>11</v>
       </c>
       <c r="D156">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2696,13 +2696,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
       </c>
       <c r="D157">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2710,13 +2710,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="C158" t="s">
         <v>11</v>
       </c>
       <c r="D158">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2724,13 +2724,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="C159" t="s">
         <v>11</v>
       </c>
       <c r="D159">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2738,13 +2738,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="C160" t="s">
         <v>11</v>
       </c>
       <c r="D160">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2752,13 +2752,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>43929</v>
+        <v>43935</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2766,13 +2766,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>43931</v>
+        <v>43936</v>
       </c>
       <c r="C162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2780,13 +2780,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>43932</v>
+        <v>43937</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2794,13 +2794,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>43894</v>
+        <v>43938</v>
       </c>
       <c r="C164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2808,10 +2808,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -2822,13 +2822,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>43918</v>
+        <v>43931</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2836,13 +2836,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>43924</v>
+        <v>43932</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2850,7 +2850,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>43925</v>
+        <v>43894</v>
       </c>
       <c r="C168" t="s">
         <v>13</v>
@@ -2864,7 +2864,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>43926</v>
+        <v>43898</v>
       </c>
       <c r="C169" t="s">
         <v>13</v>
@@ -2878,7 +2878,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>43929</v>
+        <v>43918</v>
       </c>
       <c r="C170" t="s">
         <v>13</v>
@@ -2892,13 +2892,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>43932</v>
+        <v>43924</v>
       </c>
       <c r="C171" t="s">
         <v>13</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2906,7 +2906,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>43934</v>
+        <v>43925</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
@@ -2920,13 +2920,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>43936</v>
+        <v>43926</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2934,7 +2934,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>43937</v>
+        <v>43929</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
@@ -2948,10 +2948,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -2962,10 +2962,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>43919</v>
+        <v>43934</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -2976,13 +2976,13 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>43921</v>
+        <v>43936</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2990,10 +2990,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>43929</v>
+        <v>43937</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -3004,10 +3004,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -3018,13 +3018,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>43935</v>
+        <v>43938</v>
       </c>
       <c r="C180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3032,13 +3032,13 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>43937</v>
+        <v>43919</v>
       </c>
       <c r="C181" t="s">
         <v>15</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3046,10 +3046,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>43911</v>
+        <v>43921</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -3060,10 +3060,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>43913</v>
+        <v>43929</v>
       </c>
       <c r="C183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -3074,10 +3074,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>43918</v>
+        <v>43932</v>
       </c>
       <c r="C184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -3088,13 +3088,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>43919</v>
+        <v>43935</v>
       </c>
       <c r="C185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3102,13 +3102,13 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>43920</v>
+        <v>43937</v>
       </c>
       <c r="C186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3116,10 +3116,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>43925</v>
+        <v>43938</v>
       </c>
       <c r="C187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -3130,7 +3130,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>43926</v>
+        <v>43911</v>
       </c>
       <c r="C188" t="s">
         <v>16</v>
@@ -3144,7 +3144,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>43927</v>
+        <v>43913</v>
       </c>
       <c r="C189" t="s">
         <v>16</v>
@@ -3158,7 +3158,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>43928</v>
+        <v>43918</v>
       </c>
       <c r="C190" t="s">
         <v>16</v>
@@ -3172,13 +3172,13 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>43930</v>
+        <v>43919</v>
       </c>
       <c r="C191" t="s">
         <v>16</v>
       </c>
       <c r="D191">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3186,7 +3186,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>43936</v>
+        <v>43920</v>
       </c>
       <c r="C192" t="s">
         <v>16</v>
@@ -3200,7 +3200,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>43937</v>
+        <v>43925</v>
       </c>
       <c r="C193" t="s">
         <v>16</v>
@@ -3214,10 +3214,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>43897</v>
+        <v>43926</v>
       </c>
       <c r="C194" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -3228,13 +3228,13 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="C195" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3242,10 +3242,10 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>43932</v>
+        <v>43928</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -3256,13 +3256,13 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>43933</v>
+        <v>43930</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3270,10 +3270,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="C198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -3284,10 +3284,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>43894</v>
+        <v>43937</v>
       </c>
       <c r="C199" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -3301,10 +3301,10 @@
         <v>43897</v>
       </c>
       <c r="C200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3312,13 +3312,13 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>43900</v>
+        <v>43928</v>
       </c>
       <c r="C201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3326,10 +3326,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>43915</v>
+        <v>43932</v>
       </c>
       <c r="C202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -3340,10 +3340,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>43918</v>
+        <v>43933</v>
       </c>
       <c r="C203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -3354,10 +3354,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>43920</v>
+        <v>43935</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -3368,13 +3368,13 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>43923</v>
+        <v>43894</v>
       </c>
       <c r="C205" t="s">
         <v>18</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3382,13 +3382,13 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>43925</v>
+        <v>43897</v>
       </c>
       <c r="C206" t="s">
         <v>18</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3396,13 +3396,13 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>43927</v>
+        <v>43900</v>
       </c>
       <c r="C207" t="s">
         <v>18</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3410,7 +3410,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>43928</v>
+        <v>43915</v>
       </c>
       <c r="C208" t="s">
         <v>18</v>
@@ -3424,7 +3424,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>43929</v>
+        <v>43918</v>
       </c>
       <c r="C209" t="s">
         <v>18</v>
@@ -3438,13 +3438,13 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>43930</v>
+        <v>43920</v>
       </c>
       <c r="C210" t="s">
         <v>18</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3452,13 +3452,13 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>43931</v>
+        <v>43923</v>
       </c>
       <c r="C211" t="s">
         <v>18</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3466,13 +3466,13 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="C212" t="s">
         <v>18</v>
       </c>
       <c r="D212">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3480,7 +3480,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>43935</v>
+        <v>43927</v>
       </c>
       <c r="C213" t="s">
         <v>18</v>
@@ -3494,13 +3494,13 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>43936</v>
+        <v>43928</v>
       </c>
       <c r="C214" t="s">
         <v>18</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3508,13 +3508,13 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>43937</v>
+        <v>43929</v>
       </c>
       <c r="C215" t="s">
         <v>18</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3522,13 +3522,13 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>43894</v>
+        <v>43930</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3536,13 +3536,13 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>43901</v>
+        <v>43931</v>
       </c>
       <c r="C217" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3550,13 +3550,13 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>43918</v>
+        <v>43932</v>
       </c>
       <c r="C218" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3564,10 +3564,10 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>43930</v>
+        <v>43935</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D219">
         <v>2</v>
@@ -3578,10 +3578,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>43931</v>
+        <v>43936</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D220">
         <v>2</v>
@@ -3592,13 +3592,13 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>43932</v>
+        <v>43937</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3606,13 +3606,13 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>43933</v>
+        <v>43938</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3620,13 +3620,13 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>43935</v>
+        <v>43894</v>
       </c>
       <c r="C223" t="s">
         <v>19</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3634,10 +3634,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>43893</v>
+        <v>43901</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -3648,10 +3648,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>43894</v>
+        <v>43918</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -3662,13 +3662,13 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>43900</v>
+        <v>43930</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3676,13 +3676,13 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>43912</v>
+        <v>43931</v>
       </c>
       <c r="C227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3690,10 +3690,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>43923</v>
+        <v>43932</v>
       </c>
       <c r="C228" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -3704,10 +3704,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>43925</v>
+        <v>43933</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -3718,13 +3718,13 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>43928</v>
+        <v>43935</v>
       </c>
       <c r="C230" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3732,13 +3732,13 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>43931</v>
+        <v>43938</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3746,7 +3746,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>43932</v>
+        <v>43893</v>
       </c>
       <c r="C232" t="s">
         <v>20</v>
@@ -3760,13 +3760,13 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>43933</v>
+        <v>43894</v>
       </c>
       <c r="C233" t="s">
         <v>20</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3774,13 +3774,13 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>43934</v>
+        <v>43900</v>
       </c>
       <c r="C234" t="s">
         <v>20</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3788,7 +3788,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>43936</v>
+        <v>43912</v>
       </c>
       <c r="C235" t="s">
         <v>20</v>
@@ -3802,7 +3802,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>43937</v>
+        <v>43923</v>
       </c>
       <c r="C236" t="s">
         <v>20</v>
@@ -3816,10 +3816,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>43923</v>
+        <v>43925</v>
       </c>
       <c r="C237" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -3830,13 +3830,13 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>43924</v>
+        <v>43928</v>
       </c>
       <c r="C238" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3847,10 +3847,10 @@
         <v>43931</v>
       </c>
       <c r="C239" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3861,7 +3861,7 @@
         <v>43932</v>
       </c>
       <c r="C240" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -3872,13 +3872,13 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>43901</v>
+        <v>43933</v>
       </c>
       <c r="C241" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3886,13 +3886,13 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="C242" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3900,13 +3900,13 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>43908</v>
+        <v>43936</v>
       </c>
       <c r="C243" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3914,10 +3914,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>43924</v>
+        <v>43937</v>
       </c>
       <c r="C244" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -3928,13 +3928,13 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>43930</v>
+        <v>43923</v>
       </c>
       <c r="C245" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3942,10 +3942,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="C246" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -3956,10 +3956,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="C247" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -3970,10 +3970,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="C248" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -3984,13 +3984,13 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>43934</v>
+        <v>43938</v>
       </c>
       <c r="C249" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D249">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3998,13 +3998,13 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>43936</v>
+        <v>43901</v>
       </c>
       <c r="C250" t="s">
         <v>22</v>
       </c>
       <c r="D250">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4012,13 +4012,13 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>43937</v>
+        <v>43903</v>
       </c>
       <c r="C251" t="s">
         <v>22</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4026,13 +4026,13 @@
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>43917</v>
+        <v>43908</v>
       </c>
       <c r="C252" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4040,10 +4040,10 @@
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="C253" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -4054,13 +4054,13 @@
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>43925</v>
+        <v>43930</v>
       </c>
       <c r="C254" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4068,10 +4068,10 @@
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C255" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -4082,10 +4082,10 @@
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>43936</v>
+        <v>43932</v>
       </c>
       <c r="C256" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -4096,10 +4096,10 @@
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>43904</v>
+        <v>43933</v>
       </c>
       <c r="C257" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -4110,13 +4110,13 @@
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>43907</v>
+        <v>43934</v>
       </c>
       <c r="C258" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4124,13 +4124,13 @@
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>43908</v>
+        <v>43936</v>
       </c>
       <c r="C259" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4138,13 +4138,13 @@
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>43934</v>
+        <v>43937</v>
       </c>
       <c r="C260" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4152,10 +4152,10 @@
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>43936</v>
+        <v>43917</v>
       </c>
       <c r="C261" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -4166,10 +4166,10 @@
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>43937</v>
+        <v>43923</v>
       </c>
       <c r="C262" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -4180,10 +4180,10 @@
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="C263" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -4194,10 +4194,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>43913</v>
+        <v>43930</v>
       </c>
       <c r="C264" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -4208,10 +4208,10 @@
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>43919</v>
+        <v>43938</v>
       </c>
       <c r="C265" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -4222,13 +4222,13 @@
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>43931</v>
+        <v>43936</v>
       </c>
       <c r="C266" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4236,10 +4236,10 @@
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>43935</v>
+        <v>43904</v>
       </c>
       <c r="C267" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -4250,10 +4250,10 @@
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>43922</v>
+        <v>43907</v>
       </c>
       <c r="C268" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -4264,13 +4264,13 @@
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>43917</v>
+        <v>43908</v>
       </c>
       <c r="C269" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4278,10 +4278,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>43894</v>
+        <v>43934</v>
       </c>
       <c r="C270" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -4292,10 +4292,10 @@
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>43897</v>
+        <v>43936</v>
       </c>
       <c r="C271" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -4306,10 +4306,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>43914</v>
+        <v>43937</v>
       </c>
       <c r="C272" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -4320,10 +4320,10 @@
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="C273" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -4334,10 +4334,10 @@
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>43920</v>
+        <v>43913</v>
       </c>
       <c r="C274" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -4348,13 +4348,13 @@
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="C275" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4362,13 +4362,13 @@
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>43923</v>
+        <v>43931</v>
       </c>
       <c r="C276" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4376,10 +4376,10 @@
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>43925</v>
+        <v>43935</v>
       </c>
       <c r="C277" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -4390,10 +4390,10 @@
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>43926</v>
+        <v>43922</v>
       </c>
       <c r="C278" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -4404,10 +4404,10 @@
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>43928</v>
+        <v>43938</v>
       </c>
       <c r="C279" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -4418,13 +4418,13 @@
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>43929</v>
+        <v>43917</v>
       </c>
       <c r="C280" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4432,7 +4432,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>43930</v>
+        <v>43894</v>
       </c>
       <c r="C281" t="s">
         <v>30</v>
@@ -4446,13 +4446,13 @@
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>43931</v>
+        <v>43897</v>
       </c>
       <c r="C282" t="s">
         <v>30</v>
       </c>
       <c r="D282">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4460,13 +4460,13 @@
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>43936</v>
+        <v>43914</v>
       </c>
       <c r="C283" t="s">
         <v>30</v>
       </c>
       <c r="D283">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4474,13 +4474,13 @@
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>43937</v>
+        <v>43915</v>
       </c>
       <c r="C284" t="s">
         <v>30</v>
       </c>
       <c r="D284">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4488,13 +4488,13 @@
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>43915</v>
+        <v>43920</v>
       </c>
       <c r="C285" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4502,13 +4502,13 @@
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>43929</v>
+        <v>43921</v>
       </c>
       <c r="C286" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4516,13 +4516,13 @@
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>43931</v>
+        <v>43923</v>
       </c>
       <c r="C287" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4530,13 +4530,13 @@
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="C288" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D288">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4544,10 +4544,10 @@
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>43936</v>
+        <v>43926</v>
       </c>
       <c r="C289" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D289">
         <v>1</v>
@@ -4558,10 +4558,10 @@
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="C290" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -4572,13 +4572,13 @@
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>43900</v>
+        <v>43929</v>
       </c>
       <c r="C291" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4586,10 +4586,10 @@
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>43904</v>
+        <v>43930</v>
       </c>
       <c r="C292" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D292">
         <v>1</v>
@@ -4600,13 +4600,13 @@
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>43917</v>
+        <v>43931</v>
       </c>
       <c r="C293" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4614,13 +4614,13 @@
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>43919</v>
+        <v>43936</v>
       </c>
       <c r="C294" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4628,10 +4628,10 @@
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>43923</v>
+        <v>43937</v>
       </c>
       <c r="C295" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D295">
         <v>2</v>
@@ -4642,13 +4642,13 @@
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="C296" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D296">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4656,13 +4656,13 @@
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>43927</v>
+        <v>43915</v>
       </c>
       <c r="C297" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4670,10 +4670,10 @@
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="C298" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -4684,13 +4684,13 @@
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C299" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D299">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4698,13 +4698,13 @@
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>43936</v>
+        <v>43929</v>
       </c>
       <c r="C300" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4712,10 +4712,10 @@
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="C301" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -4726,10 +4726,10 @@
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>43919</v>
+        <v>43897</v>
       </c>
       <c r="C302" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -4740,10 +4740,10 @@
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>43931</v>
+        <v>43900</v>
       </c>
       <c r="C303" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -4754,10 +4754,10 @@
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>43936</v>
+        <v>43904</v>
       </c>
       <c r="C304" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D304">
         <v>1</v>
@@ -4768,10 +4768,10 @@
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>43897</v>
+        <v>43917</v>
       </c>
       <c r="C305" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D305">
         <v>1</v>
@@ -4782,13 +4782,13 @@
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>43898</v>
+        <v>43919</v>
       </c>
       <c r="C306" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D306">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4796,13 +4796,13 @@
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>43900</v>
+        <v>43923</v>
       </c>
       <c r="C307" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4810,13 +4810,13 @@
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>43901</v>
+        <v>43924</v>
       </c>
       <c r="C308" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D308">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4824,10 +4824,10 @@
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>43903</v>
+        <v>43927</v>
       </c>
       <c r="C309" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -4838,10 +4838,10 @@
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>43914</v>
+        <v>43928</v>
       </c>
       <c r="C310" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -4852,13 +4852,13 @@
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>43916</v>
+        <v>43930</v>
       </c>
       <c r="C311" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4866,10 +4866,10 @@
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>43918</v>
+        <v>43936</v>
       </c>
       <c r="C312" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -4880,13 +4880,13 @@
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>43922</v>
+        <v>43937</v>
       </c>
       <c r="C313" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D313">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4894,13 +4894,13 @@
         <v>312</v>
       </c>
       <c r="B314" s="2">
-        <v>43923</v>
+        <v>43938</v>
       </c>
       <c r="C314" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D314">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4908,10 +4908,10 @@
         <v>313</v>
       </c>
       <c r="B315" s="2">
-        <v>43924</v>
+        <v>43919</v>
       </c>
       <c r="C315" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -4922,10 +4922,10 @@
         <v>314</v>
       </c>
       <c r="B316" s="2">
-        <v>43925</v>
+        <v>43931</v>
       </c>
       <c r="C316" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -4936,13 +4936,13 @@
         <v>315</v>
       </c>
       <c r="B317" s="2">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="C317" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D317">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4950,13 +4950,13 @@
         <v>316</v>
       </c>
       <c r="B318" s="2">
-        <v>43930</v>
+        <v>43897</v>
       </c>
       <c r="C318" t="s">
         <v>35</v>
       </c>
       <c r="D318">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4964,7 +4964,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="2">
-        <v>43931</v>
+        <v>43898</v>
       </c>
       <c r="C319" t="s">
         <v>35</v>
@@ -4978,13 +4978,13 @@
         <v>318</v>
       </c>
       <c r="B320" s="2">
-        <v>43932</v>
+        <v>43900</v>
       </c>
       <c r="C320" t="s">
         <v>35</v>
       </c>
       <c r="D320">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4992,13 +4992,13 @@
         <v>319</v>
       </c>
       <c r="B321" s="2">
-        <v>43933</v>
+        <v>43901</v>
       </c>
       <c r="C321" t="s">
         <v>35</v>
       </c>
       <c r="D321">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5006,13 +5006,13 @@
         <v>320</v>
       </c>
       <c r="B322" s="2">
-        <v>43934</v>
+        <v>43903</v>
       </c>
       <c r="C322" t="s">
         <v>35</v>
       </c>
       <c r="D322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5020,7 +5020,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="2">
-        <v>43935</v>
+        <v>43914</v>
       </c>
       <c r="C323" t="s">
         <v>35</v>
@@ -5034,13 +5034,13 @@
         <v>322</v>
       </c>
       <c r="B324" s="2">
-        <v>43936</v>
+        <v>43916</v>
       </c>
       <c r="C324" t="s">
         <v>35</v>
       </c>
       <c r="D324">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5048,7 +5048,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="2">
-        <v>43937</v>
+        <v>43918</v>
       </c>
       <c r="C325" t="s">
         <v>35</v>
@@ -5062,13 +5062,13 @@
         <v>324</v>
       </c>
       <c r="B326" s="2">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="C326" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D326">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5076,13 +5076,13 @@
         <v>325</v>
       </c>
       <c r="B327" s="2">
-        <v>43900</v>
+        <v>43923</v>
       </c>
       <c r="C327" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D327">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -5090,13 +5090,13 @@
         <v>326</v>
       </c>
       <c r="B328" s="2">
-        <v>43935</v>
+        <v>43924</v>
       </c>
       <c r="C328" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5104,10 +5104,10 @@
         <v>327</v>
       </c>
       <c r="B329" s="2">
-        <v>43897</v>
+        <v>43925</v>
       </c>
       <c r="C329" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -5118,13 +5118,13 @@
         <v>328</v>
       </c>
       <c r="B330" s="2">
-        <v>43904</v>
+        <v>43929</v>
       </c>
       <c r="C330" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D330">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5132,13 +5132,13 @@
         <v>329</v>
       </c>
       <c r="B331" s="2">
-        <v>43916</v>
+        <v>43930</v>
       </c>
       <c r="C331" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D331">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5146,10 +5146,10 @@
         <v>330</v>
       </c>
       <c r="B332" s="2">
-        <v>43919</v>
+        <v>43931</v>
       </c>
       <c r="C332" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D332">
         <v>2</v>
@@ -5160,13 +5160,13 @@
         <v>331</v>
       </c>
       <c r="B333" s="2">
-        <v>43920</v>
+        <v>43932</v>
       </c>
       <c r="C333" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D333">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5174,13 +5174,13 @@
         <v>332</v>
       </c>
       <c r="B334" s="2">
-        <v>43921</v>
+        <v>43933</v>
       </c>
       <c r="C334" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D334">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5188,13 +5188,13 @@
         <v>333</v>
       </c>
       <c r="B335" s="2">
-        <v>43922</v>
+        <v>43934</v>
       </c>
       <c r="C335" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5202,10 +5202,10 @@
         <v>334</v>
       </c>
       <c r="B336" s="2">
-        <v>43923</v>
+        <v>43935</v>
       </c>
       <c r="C336" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -5216,13 +5216,13 @@
         <v>335</v>
       </c>
       <c r="B337" s="2">
-        <v>43924</v>
+        <v>43936</v>
       </c>
       <c r="C337" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D337">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5230,13 +5230,13 @@
         <v>336</v>
       </c>
       <c r="B338" s="2">
-        <v>43928</v>
+        <v>43937</v>
       </c>
       <c r="C338" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D338">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5244,13 +5244,13 @@
         <v>337</v>
       </c>
       <c r="B339" s="2">
-        <v>43930</v>
+        <v>43938</v>
       </c>
       <c r="C339" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D339">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5258,13 +5258,13 @@
         <v>338</v>
       </c>
       <c r="B340" s="2">
-        <v>43931</v>
+        <v>43936</v>
       </c>
       <c r="C340" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D340">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5272,10 +5272,10 @@
         <v>339</v>
       </c>
       <c r="B341" s="2">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="C341" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D341">
         <v>1</v>
@@ -5286,10 +5286,10 @@
         <v>340</v>
       </c>
       <c r="B342" s="2">
-        <v>43935</v>
+        <v>43900</v>
       </c>
       <c r="C342" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -5300,13 +5300,13 @@
         <v>341</v>
       </c>
       <c r="B343" s="2">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="C343" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5314,13 +5314,13 @@
         <v>342</v>
       </c>
       <c r="B344" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="C344" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5328,10 +5328,10 @@
         <v>343</v>
       </c>
       <c r="B345" s="2">
-        <v>43900</v>
+        <v>43904</v>
       </c>
       <c r="C345" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D345">
         <v>1</v>
@@ -5342,10 +5342,10 @@
         <v>344</v>
       </c>
       <c r="B346" s="2">
-        <v>43908</v>
+        <v>43916</v>
       </c>
       <c r="C346" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D346">
         <v>1</v>
@@ -5356,13 +5356,13 @@
         <v>345</v>
       </c>
       <c r="B347" s="2">
-        <v>43916</v>
+        <v>43919</v>
       </c>
       <c r="C347" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5370,10 +5370,10 @@
         <v>346</v>
       </c>
       <c r="B348" s="2">
-        <v>43917</v>
+        <v>43920</v>
       </c>
       <c r="C348" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D348">
         <v>1</v>
@@ -5387,10 +5387,10 @@
         <v>43921</v>
       </c>
       <c r="C349" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5398,10 +5398,10 @@
         <v>348</v>
       </c>
       <c r="B350" s="2">
-        <v>43924</v>
+        <v>43922</v>
       </c>
       <c r="C350" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -5412,10 +5412,10 @@
         <v>349</v>
       </c>
       <c r="B351" s="2">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="C351" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -5426,13 +5426,13 @@
         <v>350</v>
       </c>
       <c r="B352" s="2">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="C352" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D352">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5440,13 +5440,13 @@
         <v>351</v>
       </c>
       <c r="B353" s="2">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="C353" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D353">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5457,7 +5457,7 @@
         <v>43930</v>
       </c>
       <c r="C354" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D354">
         <v>1</v>
@@ -5471,10 +5471,10 @@
         <v>43931</v>
       </c>
       <c r="C355" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D355">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5482,10 +5482,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="2">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C356" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -5496,10 +5496,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="2">
-        <v>43926</v>
+        <v>43938</v>
       </c>
       <c r="C357" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -5510,13 +5510,13 @@
         <v>356</v>
       </c>
       <c r="B358" s="2">
-        <v>43931</v>
+        <v>43935</v>
       </c>
       <c r="C358" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D358">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5524,12 +5524,264 @@
         <v>357</v>
       </c>
       <c r="B359" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C359" t="s">
+        <v>39</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C360" t="s">
+        <v>39</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2">
+        <v>43896</v>
+      </c>
+      <c r="C361" t="s">
+        <v>40</v>
+      </c>
+      <c r="D361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2">
+        <v>43900</v>
+      </c>
+      <c r="C362" t="s">
+        <v>40</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2">
+        <v>43908</v>
+      </c>
+      <c r="C363" t="s">
+        <v>40</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2">
+        <v>43916</v>
+      </c>
+      <c r="C364" t="s">
+        <v>40</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2">
+        <v>43917</v>
+      </c>
+      <c r="C365" t="s">
+        <v>40</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2">
+        <v>43921</v>
+      </c>
+      <c r="C366" t="s">
+        <v>40</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C367" t="s">
+        <v>40</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C368" t="s">
+        <v>40</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" s="2">
+        <v>43928</v>
+      </c>
+      <c r="C369" t="s">
+        <v>40</v>
+      </c>
+      <c r="D369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C370" t="s">
+        <v>40</v>
+      </c>
+      <c r="D370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C371" t="s">
+        <v>40</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C372" t="s">
+        <v>40</v>
+      </c>
+      <c r="D372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" s="2">
         <v>43936</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C373" t="s">
+        <v>40</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C374" t="s">
+        <v>40</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C375" t="s">
+        <v>41</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C376" t="s">
         <v>42</v>
       </c>
-      <c r="D359">
+      <c r="D376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C377" t="s">
+        <v>42</v>
+      </c>
+      <c r="D377">
         <v>1</v>
       </c>
     </row>
